--- a/Excel_URL_Checker/Exports/test - Similarity __50 % - Grouping Keys__100 %.xlsx
+++ b/Excel_URL_Checker/Exports/test - Similarity __50 % - Grouping Keys__100 %.xlsx
@@ -149,7 +149,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -218,7 +218,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -254,7 +254,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -290,7 +290,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -304,7 +304,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -318,7 +318,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
